--- a/responses/HR Policies.xlsx
+++ b/responses/HR Policies.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>what are our remote work policy?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Our remote work policy at Cummins Inc. is as follows:
+Cummins acknowledges the changing nature of work environments and supports flexible work arrangements, including remote work. Eligibility for remote work is based on the nature of the job and managerial discretion. Employees working remotely must ensure a suitable home office setup, maintain regular communication with their teams, and be available during designated work hours. The company will periodically review and adjust remote work policies to adapt to evolving business needs.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-10-06 11:09:13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What are our remote work policies?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cummins Inc. supports flexible work arrangements, including remote work. The eligibility for remote work is determined based on the nature of the job and managerial discretion. Employees who are working remotely are expected to ensure a suitable home office setup, maintain regular communication with their teams, and be available during designated work hours. The company will periodically review and adjust remote work policies to adapt to evolving business needs.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:45:39</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
